--- a/kakeibo_table.xlsx
+++ b/kakeibo_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee31402ec8028d41/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{7A141E3B-357A-4D74-8D8D-005338AC6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{363CC7C4-EC9B-4CD6-88EF-89EC83BCB6BA}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{7A141E3B-357A-4D74-8D8D-005338AC6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32DC9862-14DA-4C6A-9FDB-2BFC9ED732F0}"/>
   <bookViews>
-    <workbookView xWindow="2184" yWindow="1752" windowWidth="16332" windowHeight="10488" firstSheet="1" activeTab="3" xr2:uid="{6E758AA0-31D4-4970-A7BD-AA9C8C0CF187}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6E758AA0-31D4-4970-A7BD-AA9C8C0CF187}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -175,6 +172,17 @@
   </si>
   <si>
     <t>対象月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -213,10 +221,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -227,11 +261,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,7 +591,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -563,129 +603,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -697,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D7E233-4DE8-48B3-B44D-3D18F95878D5}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -710,132 +762,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -849,7 +912,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -860,132 +923,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -997,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B09F7F-D024-4A9D-9E81-C3D09CF02664}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1011,107 +1085,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/kakeibo_table.xlsx
+++ b/kakeibo_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee31402ec8028d41/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{7A141E3B-357A-4D74-8D8D-005338AC6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32DC9862-14DA-4C6A-9FDB-2BFC9ED732F0}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{7A141E3B-357A-4D74-8D8D-005338AC6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED842F0B-364E-4EEA-BEDD-C52A58766F92}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6E758AA0-31D4-4970-A7BD-AA9C8C0CF187}"/>
+    <workbookView xWindow="4008" yWindow="804" windowWidth="16332" windowHeight="10488" xr2:uid="{6E758AA0-31D4-4970-A7BD-AA9C8C0CF187}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -183,6 +183,21 @@
     <rPh sb="0" eb="2">
       <t>ヤクワリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR（10）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -271,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA02C4B9-C9D6-4C55-A15E-84B3684C74E6}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -701,7 +716,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -738,6 +753,25 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -749,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D7E233-4DE8-48B3-B44D-3D18F95878D5}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
